--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/vendas.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/vendas.xlsx
@@ -1060,11 +1060,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1560330880"/>
-        <c:axId val="1560331968"/>
+        <c:axId val="1483514128"/>
+        <c:axId val="1483515760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1560330880"/>
+        <c:axId val="1483514128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1107,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560331968"/>
+        <c:crossAx val="1483515760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1560331968"/>
+        <c:axId val="1483515760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560330880"/>
+        <c:crossAx val="1483514128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2176,6 +2176,18 @@
     <we:binding id="21_FORMULA" type="text" appref="{62E89C47-7330-41FF-A42A-451213AE593A}"/>
     <we:binding id="22_FORMULA" type="text" appref="{8909539D-4747-4FB2-A1EF-6C91A6EBE45F}"/>
     <we:binding id="23_FORMULA" type="text" appref="{7F80DB61-1678-4EE2-BFED-15AF3119D875}"/>
+    <we:binding id="PriFormulae6" type="text" appref="{20E84F55-AF12-4499-AE50-7645F88E5AFA}"/>
+    <we:binding id="PriFormulae7" type="text" appref="{23C21657-9413-4D61-BBAE-8078B0450582}"/>
+    <we:binding id="PriFormulae8" type="text" appref="{4A5D5E0E-1F8E-4668-8E90-38A95475A28E}"/>
+    <we:binding id="PriFormulae9" type="text" appref="{90C808C4-FD03-4D1F-9427-EA6FA2706DB5}"/>
+    <we:binding id="PriFormulae10" type="text" appref="{8D76C183-FB85-4663-926B-87930476E82B}"/>
+    <we:binding id="PriFormulae11" type="text" appref="{4A24337C-97D0-4352-BF22-6F82EDE72C5A}"/>
+    <we:binding id="PriFormulae12" type="text" appref="{11CAED22-D31A-44B0-B6E3-FCA312A8F074}"/>
+    <we:binding id="PriFormulae13" type="text" appref="{DB818FFE-973F-4024-B472-0B3C5C6390B2}"/>
+    <we:binding id="PriFormulae14" type="text" appref="{D77B6F7C-CDE2-44AE-8BEB-811718CCB494}"/>
+    <we:binding id="PriFormulae15" type="text" appref="{210CF6DD-71EA-4D67-8236-18DE30D0D905}"/>
+    <we:binding id="PriFormulae16" type="text" appref="{61CF9443-0938-4467-A19C-AFE96830F792}"/>
+    <we:binding id="PriFormulae17" type="text" appref="{1FBC8D95-9F69-4F76-9E73-47C2DB7DA659}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -2186,7 +2198,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2456,7 @@
           <xm:f>Sheet1!A24</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{3F2472AC-3C15-4E99-BB9C-9574E9071B3B}">
-          <xm:f>Sheet1!C9</xm:f>
+          <xm:f>Sheet1!C6</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{A31268FB-224C-456C-B155-CA82643550BA}">
           <xm:f>Sheet1!C7</xm:f>
@@ -2586,6 +2598,42 @@
         </x15:webExtension>
         <x15:webExtension appRef="{7F80DB61-1678-4EE2-BFED-15AF3119D875}">
           <xm:f>Sheet1!D17</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{20E84F55-AF12-4499-AE50-7645F88E5AFA}">
+          <xm:f>Sheet1!E6</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{23C21657-9413-4D61-BBAE-8078B0450582}">
+          <xm:f>Sheet1!E7</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4A5D5E0E-1F8E-4668-8E90-38A95475A28E}">
+          <xm:f>Sheet1!E8</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{90C808C4-FD03-4D1F-9427-EA6FA2706DB5}">
+          <xm:f>Sheet1!E9</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{8D76C183-FB85-4663-926B-87930476E82B}">
+          <xm:f>Sheet1!E10</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4A24337C-97D0-4352-BF22-6F82EDE72C5A}">
+          <xm:f>Sheet1!E11</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{11CAED22-D31A-44B0-B6E3-FCA312A8F074}">
+          <xm:f>Sheet1!E12</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{DB818FFE-973F-4024-B472-0B3C5C6390B2}">
+          <xm:f>Sheet1!E13</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{D77B6F7C-CDE2-44AE-8BEB-811718CCB494}">
+          <xm:f>Sheet1!E14</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{210CF6DD-71EA-4D67-8236-18DE30D0D905}">
+          <xm:f>Sheet1!E15</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{61CF9443-0938-4467-A19C-AFE96830F792}">
+          <xm:f>Sheet1!E16</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{1FBC8D95-9F69-4F76-9E73-47C2DB7DA659}">
+          <xm:f>Sheet1!E17</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
